--- a/biology/Botanique/Tribolium_(plante)/Tribolium_(plante).xlsx
+++ b/biology/Botanique/Tribolium_(plante)/Tribolium_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tribolium est un genre de plantes herbacées de la famille des Poaceae, originaire d'Afrique.
-Ce genre regroupe une dizaine d'espèces annuelles ou vivaces, indigènes de l'Afrique australe, dont quatre ont été introduites en Australie[1]. 
+Ce genre regroupe une dizaine d'espèces annuelles ou vivaces, indigènes de l'Afrique australe, dont quatre ont été introduites en Australie. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (23 oct. 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (23 oct. 2013) :
 Tribolium acutiflorum (Nees) Renvoize
 Tribolium brachystachyum (Nees) Renvoize
 Tribolium ciliare (Stapf) Renvoize
@@ -529,7 +543,7 @@
 Tribolium tenellum (Nees) Verboom &amp; H. P. Linder
 Tribolium uniolae (L. f.) Renvoize
 Tribolium utriculosum (Nees) Renvoize
-Selon World Checklist of Selected Plant Families (WCSP)  (23 oct. 2013)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)  (23 oct. 2013) :
 Tribolium acutiflorum (Nees) Renvoize (1985)
 Tribolium alternans (Nees) Renvoize (1985)
 Tribolium amplexum Renvoize (1985)
@@ -545,7 +559,7 @@
 Tribolium tenellum (Nees) Verboom &amp; H.P.Linder (2010)
 Tribolium uniolae (L.f.) Renvoize (1985)
 Tribolium utriculosum (Nees) Renvoize (1985)
-Selon Tropicos                                           (23 oct. 2013)[4] :
+Selon Tropicos                                           (23 oct. 2013) :
 Tribolium acutiflorum (Nees) Renvoize
 Tribolium alternans (Nees) Renvoize
 Tribolium amplexum Renvoize
